--- a/excels/Card_info.xlsx
+++ b/excels/Card_info.xlsx
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1108,7 +1108,7 @@
         <v>10002</v>
       </c>
       <c r="C5" s="2">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -1125,7 +1125,7 @@
         <v>10003</v>
       </c>
       <c r="C6" s="2">
-        <v>20003</v>
+        <v>20001</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -1142,7 +1142,7 @@
         <v>10004</v>
       </c>
       <c r="C7" s="2">
-        <v>20004</v>
+        <v>20001</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -1159,7 +1159,7 @@
         <v>10005</v>
       </c>
       <c r="C8" s="2">
-        <v>20005</v>
+        <v>20001</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
